--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B31" s="65">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B56" s="65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B57" s="65">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B63" s="65">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B68" s="65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B117" s="65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
